--- a/Entities/Data/ItemCard.xlsx
+++ b/Entities/Data/ItemCard.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="25440" yWindow="120" windowWidth="13020" windowHeight="13770"/>
+    <workbookView windowWidth="16125" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -41,74 +41,422 @@
     <t>Effect</t>
   </si>
   <si>
+    <t>Rarity</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Name PT</t>
+  </si>
+  <si>
+    <t>Guard Esp.</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>W.IMUNE.B.TWODICE</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Until the end of the battle, the Pokémon on your team are not affected by disadvantage or double disadvantage effects used by your opponent's Pokémon.</t>
+  </si>
+  <si>
+    <t>Guarda Esp.</t>
+  </si>
+  <si>
+    <t>X Attack (1)</t>
+  </si>
+  <si>
+    <t>W.ADDROLL.1</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Add 1 to your Pokémon's Attack Roll.</t>
+  </si>
+  <si>
+    <t>Ataque X (1)</t>
+  </si>
+  <si>
+    <t>X Attack (2)</t>
+  </si>
+  <si>
+    <t>W.ADDROLL.2</t>
+  </si>
+  <si>
+    <t>Add 2 to your Pokémon's Attack Roll.</t>
+  </si>
+  <si>
+    <t>Ataque X (2)</t>
+  </si>
+  <si>
+    <t>X Attack (3)</t>
+  </si>
+  <si>
+    <t>W.ADDROLL.3</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Add 3 to your Pokémon's Attack Roll.</t>
+  </si>
+  <si>
+    <t>Ataque X (3)</t>
+  </si>
+  <si>
+    <t>X Accuracy</t>
+  </si>
+  <si>
+    <t>W.TWODICES</t>
+  </si>
+  <si>
+    <t>Roll 1 extra Attack Dice, then discard the lowes result.</t>
+  </si>
+  <si>
+    <t>Precisão X</t>
+  </si>
+  <si>
+    <t>X Defense</t>
+  </si>
+  <si>
+    <t>B.TWODICES</t>
+  </si>
+  <si>
+    <t>Opponent rolls 1 extra Attack Dice, then discards the highest result.</t>
+  </si>
+  <si>
+    <t>Defesa X</t>
+  </si>
+  <si>
+    <t>Total Recover</t>
+  </si>
+  <si>
+    <t>W.HEAL.KO,STATUS</t>
+  </si>
+  <si>
+    <t>Recover 1 knocked out Pokémon or any condition state it has.</t>
+  </si>
+  <si>
+    <t>Recuperação Completa</t>
+  </si>
+  <si>
+    <t>W.DICESIDE.8</t>
+  </si>
+  <si>
+    <t>During your next attack roll, use the critical die (d8) instead of using a regular die.</t>
+  </si>
+  <si>
+    <t>Golpe Difícil</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>IMMUNE.GROUND;B.POWERMOVE.GROUND.0</t>
+  </si>
+  <si>
+    <t>The power of ground-type moves' from your opponent's Pokémon is 0, and the Pokémon attached to this card cannot be affected by its effects.</t>
+  </si>
+  <si>
+    <t>Balão de Ar</t>
+  </si>
+  <si>
+    <t>IMMUNE.TRAPCARD</t>
+  </si>
+  <si>
+    <t>The Pokémon attached to this card is not affected by Trap Cards on the field.</t>
+  </si>
+  <si>
+    <t>Botas Grossas</t>
+  </si>
+  <si>
+    <t>ADDEFFECT.W.TWODICES.ONCE</t>
+  </si>
+  <si>
+    <t>Once per battle, the attached Pokémon's move gains: Advantage (if you roll 5 or more on the effect die)</t>
+  </si>
+  <si>
+    <t>Colete de Ataque</t>
+  </si>
+  <si>
+    <t>Exp. Share</t>
+  </si>
+  <si>
+    <t>EXPSHARE</t>
+  </si>
+  <si>
+    <t>Once per battle, if a Pokémon levels up, you may instead place the level on this attached Pokémon, provided that the defeated Pokémon has a level equal to or higher than this Pokémon.</t>
+  </si>
+  <si>
+    <t>Compartilhar Exp.</t>
+  </si>
+  <si>
+    <t>BERRY.EFFECTIVE;ADDROLL.2</t>
+  </si>
+  <si>
+    <r>
+      <t>Berry:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Attach this card to your Pokémon face down. Reveal it if your Pokémon receives an effective attack and discard after using.) Increase the Attack Roll by 2.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fruta Enigma</t>
+  </si>
+  <si>
+    <t>Lum Berry</t>
+  </si>
+  <si>
+    <t>BERRY.STATUS;HEAL.STATUS</t>
+  </si>
+  <si>
+    <r>
+      <t>Berry:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Attach this card to your Pokémon face down. Reveal it if your Pokémon receives a condition status and discard it after using.) Remove the condition status from this Pokémon.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fruta Lum</t>
+  </si>
+  <si>
     <t>Oran Berry</t>
   </si>
   <si>
-    <t>Attach</t>
-  </si>
-  <si>
-    <t>W.ADDPOWER.1</t>
-  </si>
-  <si>
-    <t>Anexe essa carta à seu Pokémon virada para baixo. Você pode revelar antes da rolagem de ataque, então, adicione 1 a sua Força de Ataque. Descarte essa carta após usar esse efeito.</t>
-  </si>
-  <si>
-    <t>X Attack (1)</t>
-  </si>
-  <si>
-    <t>Battle</t>
-  </si>
-  <si>
-    <t>W.ADDROLL.1</t>
-  </si>
-  <si>
-    <t>Add 1 to your Pokémon's Attack Roll.</t>
-  </si>
-  <si>
-    <t>X Attack (2)</t>
-  </si>
-  <si>
-    <t>W.ADDROLL.2</t>
-  </si>
-  <si>
-    <t>Add 2 to your Pokémon's Attack Roll.</t>
-  </si>
-  <si>
-    <t>X Attack (3)</t>
-  </si>
-  <si>
-    <t>W.ADDROLL.3</t>
-  </si>
-  <si>
-    <t>Add 3 to your Pokémon's Attack Roll.</t>
-  </si>
-  <si>
-    <t>X Accuracy</t>
-  </si>
-  <si>
-    <t>W.TWODICES</t>
-  </si>
-  <si>
-    <t>Roll 1 extra Attack Dice, then discard the lowes result.</t>
-  </si>
-  <si>
-    <t>X Defense</t>
-  </si>
-  <si>
-    <t>B.TWODICES</t>
-  </si>
-  <si>
-    <t>Opponent rolls 1 extra Attack Dice, then discards the highest result.</t>
+    <t>BERRY.ROLL;ADDPOWER.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Berry: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach this card to your Pokémon face down. Reveal it before the attack roll and discard after using.) Increase the Power of your move by 1.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fruta Oran</t>
+  </si>
+  <si>
+    <t>Sitrus Berry</t>
+  </si>
+  <si>
+    <t>BERRY.ROLL;ADDPOWER.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Berry: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach this card to your Pokémon face down. Reveal it before the attack roll and discard after using.) Increase the Power of your move by 3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fruta Sitrus</t>
+  </si>
+  <si>
+    <t>ADDEFFECT.W.DICESIDE.8.ONCE</t>
+  </si>
+  <si>
+    <t>Once per battle, a move of the Pokémon attached to this card has d8. It can reduce the evolution cost of specific Pokémon.</t>
+  </si>
+  <si>
+    <t>Garra Navalha</t>
+  </si>
+  <si>
+    <t>Choice Scarf</t>
+  </si>
+  <si>
+    <t>BLOCKMOVE;ADDEFFECT.TWODICES</t>
+  </si>
+  <si>
+    <t>The Pokémon attached to this card can only use a single move during the battle. That move has an advantage.</t>
+  </si>
+  <si>
+    <t>Lenço Escolha</t>
+  </si>
+  <si>
+    <t>COND.POISON;ADDEFFECT.LIFE.5</t>
+  </si>
+  <si>
+    <t>If the Pokémon attached to this card is Poison type, its moves have Life if you roll a 5 on the effect die.</t>
+  </si>
+  <si>
+    <t>Lodo Escuro</t>
+  </si>
+  <si>
+    <t>Amulet Coin</t>
+  </si>
+  <si>
+    <t>REWARD;DRAW.1;DISCARD.1</t>
+  </si>
+  <si>
+    <t>When you draw an Item card with the battle reward, you can buy 1 additional one and discard the card from your hand.</t>
+  </si>
+  <si>
+    <t>Moeda Amuleto</t>
+  </si>
+  <si>
+    <t>BLOCKMOVE;ADDEFFECT.PRECISION</t>
+  </si>
+  <si>
+    <t>The Pokémon attached to this card can only use a single move during the battle. That move has precision.</t>
+  </si>
+  <si>
+    <t>Óculos de Escolha</t>
+  </si>
+  <si>
+    <t>Toxic Orb</t>
+  </si>
+  <si>
+    <t>ADDEFFECT.POISON.5.ONCE</t>
+  </si>
+  <si>
+    <t>Once per battle, the move of the attached Pokémon gains: Poison if 5 or more is rolled on the effect die.</t>
+  </si>
+  <si>
+    <t>Orbe Tóxica</t>
+  </si>
+  <si>
+    <t>Flame Orb</t>
+  </si>
+  <si>
+    <t>ADDEFFECT.BURN.5.ONCE</t>
+  </si>
+  <si>
+    <t>Once per battle, the move of the attached Pokémon gains: Burn if 5 or more is rolled on the effect die.</t>
+  </si>
+  <si>
+    <t>Orbe Flamejante</t>
+  </si>
+  <si>
+    <t>Lucky Egg</t>
+  </si>
+  <si>
+    <t>After winning a battle against a trainer, if the level of the Pokémon attached to this card is lower than the level of your highest-level Pokémon, gain 1 level.</t>
+  </si>
+  <si>
+    <t>Ovo da Sorte</t>
+  </si>
+  <si>
+    <t>Heat Rock</t>
+  </si>
+  <si>
+    <t>SUNNYDAY</t>
+  </si>
+  <si>
+    <t>When the Pokémon attached to this card enters play, activate the weather effect: Sunny Day</t>
+  </si>
+  <si>
+    <t>Pedra Quente</t>
+  </si>
+  <si>
+    <t>King Rock</t>
+  </si>
+  <si>
+    <t>ADDEFFECT.B.TWODICES.6.ONCE</t>
+  </si>
+  <si>
+    <t>Once per battle, a move of the Pokémon attached to this card has the opponent at a disadvantage if 6. It can reduce the evolution cost of specific Pokémon.</t>
+  </si>
+  <si>
+    <t>Pedra do Rei</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>When the Pokémon attached to this card enters play, activate the weather effect: Snow</t>
+  </si>
+  <si>
+    <t>Pedra Gelada</t>
+  </si>
+  <si>
+    <t>SANDSTORM</t>
+  </si>
+  <si>
+    <t>When the Pokémon attached to this card enters play, activate the weather effect: Sandstorm</t>
+  </si>
+  <si>
+    <t>Pedra Lisa</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>When the Pokémon attached to this card enters play, activate the weather effect: Rain</t>
+  </si>
+  <si>
+    <t>Pedra Úmida</t>
+  </si>
+  <si>
+    <t>REROLL.EFFECTDICE.ONCE</t>
+  </si>
+  <si>
+    <t>Once per battle, the Pokémon attached to this card rolls an effect die and fails, roll again.</t>
+  </si>
+  <si>
+    <t>Seguro Contra Erro</t>
+  </si>
+  <si>
+    <t>VITAMIN</t>
+  </si>
+  <si>
+    <t>ADDROLL.1</t>
+  </si>
+  <si>
+    <t>Increase by 1 all attack rolls that the attached Pokémon makes.</t>
+  </si>
+  <si>
+    <t>Vitamina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +464,361 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,11 +826,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -145,13 +1080,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </dxf>
     <dxf>
       <alignment vertical="top"/>
@@ -160,7 +1146,7 @@
       <alignment vertical="top"/>
     </dxf>
     <dxf>
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,14 +1159,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" name="Name" dataDxfId="2"/>
-    <tableColumn id="3" name="Type" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G32" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G32" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Type" dataDxfId="2"/>
     <tableColumn id="5" name="Effect"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="7" name="Rarity"/>
+    <tableColumn id="4" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" name="Name PT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,29 +1426,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.71428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="69" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="44.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,154 +1463,698 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" ht="45" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" ht="45" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:7">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:7">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="45" spans="1:7">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" ht="30" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" ht="30" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Entities/Data/ItemCard.xlsx
+++ b/Entities/Data/ItemCard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10530"/>
+    <workbookView windowWidth="21195" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -50,13 +50,13 @@
     <t>Name PT</t>
   </si>
   <si>
-    <t>Guard Esp.</t>
+    <t>Guard Spec.</t>
   </si>
   <si>
     <t>Battle</t>
   </si>
   <si>
-    <t>W.IMUNE.B.TWODICE</t>
+    <t>W.IMMUNE.B.TWODICE</t>
   </si>
   <si>
     <t>Uncommon</t>
@@ -146,6 +146,9 @@
     <t>Recuperação Completa</t>
   </si>
   <si>
+    <t>Dire Hit</t>
+  </si>
+  <si>
     <t>W.DICESIDE.8</t>
   </si>
   <si>
@@ -155,10 +158,13 @@
     <t>Golpe Difícil</t>
   </si>
   <si>
+    <t>Air Balloon</t>
+  </si>
+  <si>
     <t>Attach</t>
   </si>
   <si>
-    <t>IMMUNE.GROUND;B.POWERMOVE.GROUND.0</t>
+    <t>A.IMMUNE.GROUND</t>
   </si>
   <si>
     <t>The power of ground-type moves' from your opponent's Pokémon is 0, and the Pokémon attached to this card cannot be affected by its effects.</t>
@@ -167,7 +173,10 @@
     <t>Balão de Ar</t>
   </si>
   <si>
-    <t>IMMUNE.TRAPCARD</t>
+    <t>Heavy-Duty Boots</t>
+  </si>
+  <si>
+    <t>A.IMMUNE.TRAPCARD</t>
   </si>
   <si>
     <t>The Pokémon attached to this card is not affected by Trap Cards on the field.</t>
@@ -176,7 +185,10 @@
     <t>Botas Grossas</t>
   </si>
   <si>
-    <t>ADDEFFECT.W.TWODICES.ONCE</t>
+    <t>Assault Vest</t>
+  </si>
+  <si>
+    <t>A.ADDEFFECT.W.TWODICES.ONCE</t>
   </si>
   <si>
     <t>Once per battle, the attached Pokémon's move gains: Advantage (if you roll 5 or more on the effect die)</t>
@@ -188,7 +200,7 @@
     <t>Exp. Share</t>
   </si>
   <si>
-    <t>EXPSHARE</t>
+    <t>A.EXPSHARE</t>
   </si>
   <si>
     <t>Once per battle, if a Pokémon levels up, you may instead place the level on this attached Pokémon, provided that the defeated Pokémon has a level equal to or higher than this Pokémon.</t>
@@ -197,10 +209,21 @@
     <t>Compartilhar Exp.</t>
   </si>
   <si>
-    <t>BERRY.EFFECTIVE;ADDROLL.2</t>
+    <t>Enigma Berry</t>
+  </si>
+  <si>
+    <t>B.EFFECTIVE;W.ADDROLL.2</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Berry:</t>
     </r>
     <r>
@@ -221,10 +244,18 @@
     <t>Lum Berry</t>
   </si>
   <si>
-    <t>BERRY.STATUS;HEAL.STATUS</t>
+    <t>B.STATUS;W.HEAL.STATUS</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Berry:</t>
     </r>
     <r>
@@ -245,10 +276,18 @@
     <t>Oran Berry</t>
   </si>
   <si>
-    <t>BERRY.ROLL;ADDPOWER.1</t>
+    <t>B.ROLL;W.ADDPOWER.1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Berry: </t>
     </r>
     <r>
@@ -269,10 +308,18 @@
     <t>Sitrus Berry</t>
   </si>
   <si>
-    <t>BERRY.ROLL;ADDPOWER.3</t>
+    <t>B.ROLL;W.ADDPOWER.3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Berry: </t>
     </r>
     <r>
@@ -290,7 +337,10 @@
     <t>Fruta Sitrus</t>
   </si>
   <si>
-    <t>ADDEFFECT.W.DICESIDE.8.ONCE</t>
+    <t>Razor Claw</t>
+  </si>
+  <si>
+    <t>A.ADDEFFECT.W.DICESIDE.8.ONCE</t>
   </si>
   <si>
     <t>Once per battle, a move of the Pokémon attached to this card has d8. It can reduce the evolution cost of specific Pokémon.</t>
@@ -302,7 +352,7 @@
     <t>Choice Scarf</t>
   </si>
   <si>
-    <t>BLOCKMOVE;ADDEFFECT.TWODICES</t>
+    <t>A.BLOCKMOVE;A.ADDEFFECT.TWODICES</t>
   </si>
   <si>
     <t>The Pokémon attached to this card can only use a single move during the battle. That move has an advantage.</t>
@@ -311,7 +361,10 @@
     <t>Lenço Escolha</t>
   </si>
   <si>
-    <t>COND.POISON;ADDEFFECT.LIFE.5</t>
+    <t>Black Sludge</t>
+  </si>
+  <si>
+    <t>A.TYPE.POISON;A.ADDEFFECT.LIFE.5</t>
   </si>
   <si>
     <t>If the Pokémon attached to this card is Poison type, its moves have Life if you roll a 5 on the effect die.</t>
@@ -323,7 +376,7 @@
     <t>Amulet Coin</t>
   </si>
   <si>
-    <t>REWARD;DRAW.1;DISCARD.1</t>
+    <t>A.REWARD;W.DRAW.1;W.DISCARD.1</t>
   </si>
   <si>
     <t>When you draw an Item card with the battle reward, you can buy 1 additional one and discard the card from your hand.</t>
@@ -332,7 +385,10 @@
     <t>Moeda Amuleto</t>
   </si>
   <si>
-    <t>BLOCKMOVE;ADDEFFECT.PRECISION</t>
+    <t>Choice Specs</t>
+  </si>
+  <si>
+    <t>A.BLOCKMOVE;W.ADDEFFECT.PRECISION</t>
   </si>
   <si>
     <t>The Pokémon attached to this card can only use a single move during the battle. That move has precision.</t>
@@ -344,7 +400,7 @@
     <t>Toxic Orb</t>
   </si>
   <si>
-    <t>ADDEFFECT.POISON.5.ONCE</t>
+    <t>A.ADDEFFECT.POISON.5.ONCE</t>
   </si>
   <si>
     <t>Once per battle, the move of the attached Pokémon gains: Poison if 5 or more is rolled on the effect die.</t>
@@ -356,7 +412,7 @@
     <t>Flame Orb</t>
   </si>
   <si>
-    <t>ADDEFFECT.BURN.5.ONCE</t>
+    <t>A.ADDEFFECT.BURN.5.ONCE</t>
   </si>
   <si>
     <t>Once per battle, the move of the attached Pokémon gains: Burn if 5 or more is rolled on the effect die.</t>
@@ -377,7 +433,7 @@
     <t>Heat Rock</t>
   </si>
   <si>
-    <t>SUNNYDAY</t>
+    <t>A.SUNNYDAY</t>
   </si>
   <si>
     <t>When the Pokémon attached to this card enters play, activate the weather effect: Sunny Day</t>
@@ -389,7 +445,7 @@
     <t>King Rock</t>
   </si>
   <si>
-    <t>ADDEFFECT.B.TWODICES.6.ONCE</t>
+    <t>A.ADDEFFECT.B.TWODICES.6.ONCE</t>
   </si>
   <si>
     <t>Once per battle, a move of the Pokémon attached to this card has the opponent at a disadvantage if 6. It can reduce the evolution cost of specific Pokémon.</t>
@@ -398,7 +454,10 @@
     <t>Pedra do Rei</t>
   </si>
   <si>
-    <t>SNOW</t>
+    <t>Icy Rock</t>
+  </si>
+  <si>
+    <t>A.SNOW</t>
   </si>
   <si>
     <t>When the Pokémon attached to this card enters play, activate the weather effect: Snow</t>
@@ -407,7 +466,10 @@
     <t>Pedra Gelada</t>
   </si>
   <si>
-    <t>SANDSTORM</t>
+    <t>Smooth Rock</t>
+  </si>
+  <si>
+    <t>A.SAND</t>
   </si>
   <si>
     <t>When the Pokémon attached to this card enters play, activate the weather effect: Sandstorm</t>
@@ -416,7 +478,10 @@
     <t>Pedra Lisa</t>
   </si>
   <si>
-    <t>RAIN</t>
+    <t>Damp Rock</t>
+  </si>
+  <si>
+    <t>A.RAIN</t>
   </si>
   <si>
     <t>When the Pokémon attached to this card enters play, activate the weather effect: Rain</t>
@@ -425,7 +490,10 @@
     <t>Pedra Úmida</t>
   </si>
   <si>
-    <t>REROLL.EFFECTDICE.ONCE</t>
+    <t>Blunder Policy</t>
+  </si>
+  <si>
+    <t>A.REROLL.REDDICE.ONCE</t>
   </si>
   <si>
     <t>Once per battle, the Pokémon attached to this card rolls an effect die and fails, roll again.</t>
@@ -434,10 +502,10 @@
     <t>Seguro Contra Erro</t>
   </si>
   <si>
-    <t>VITAMIN</t>
-  </si>
-  <si>
-    <t>ADDROLL.1</t>
+    <t>Vitamin</t>
+  </si>
+  <si>
+    <t>A.ADDROLL.1</t>
   </si>
   <si>
     <t>Increase by 1 all attack rolls that the attached Pokémon makes.</t>
@@ -1160,7 +1228,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G32" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G32" etc:filterBottomFollowUsedRange="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G32" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="equal" val="Attach"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="ID" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -1434,15 +1508,15 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.71428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.5714285714286" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.8571428571429" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.5714285714286" style="1" customWidth="1"/>
@@ -1473,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:7">
+    <row r="2" ht="45" hidden="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1496,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1519,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1542,7 +1616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1565,7 +1639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1588,7 +1662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" ht="30" hidden="1" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1611,7 +1685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:7">
+    <row r="8" ht="30" hidden="1" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1634,86 +1708,96 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:7">
+    <row r="9" ht="30" hidden="1" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="60" spans="1:7">
@@ -1721,42 +1805,45 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:7">
@@ -1764,22 +1851,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="45" spans="1:7">
@@ -1787,22 +1874,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:7">
@@ -1810,42 +1897,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="45" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:7">
@@ -1853,42 +1943,45 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:7">
@@ -1896,42 +1989,45 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:7">
@@ -1939,22 +2035,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:7">
@@ -1962,22 +2058,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" ht="45" spans="1:7">
@@ -1985,22 +2081,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:7">
@@ -2008,22 +2104,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:7">
@@ -2031,102 +2127,114 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:7">
@@ -2134,22 +2242,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
